--- a/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Functions/Funciones.xlsx
+++ b/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Functions/Funciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Funciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Monthly sales</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Highest Montly Sales</t>
+  </si>
+  <si>
+    <t>Con las funciones se evita el tipo de error #REF!</t>
   </si>
 </sst>
 </file>
@@ -63,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,6 +102,13 @@
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -162,7 +172,7 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -185,6 +195,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -404,8 +415,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -548,12 +559,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I3:I4" si="3">MIN(B4:E4)</f>
+        <f>MIN(B4:E4)</f>
         <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
         <v>167789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
